--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_272.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_272.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,630 +488,652 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_73</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.08311603650586702</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2461538461538462</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'B:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(88.497, 92.37)]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(6.06678, 9.967732)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>[('0:01:14.700000', '0:01:34.120000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:02:01.740000', '0:02:03.780000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2392857142857143</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>isophonics_170</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_241</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1273344651952462</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>[['E:min', 'A', 'D']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(63.1, 64.32)]</t>
+          <t>[['D:min', 'G', 'C']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(243.44, 246.98)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:47.993000', '0:00:51.613644')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:01:30.971000', '0:01:36.810000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_215</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.07480106100795755</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_274</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_124</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1083333333333333</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>[['Ab', 'Db', 'Ab']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(40.38, 42.28)]</t>
+          <t>[['F', 'Bb', 'F']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(15.78, 21.28)]</t>
+          <t>[('0:00:03.129454', '0:00:05.172811')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:15.124263', '0:00:20.058503')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_74</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_297</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.05614035087719298</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Eb:7', 'Ab']]</t>
-        </is>
+          <t>isophonics_22</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_263</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.07916666666666666</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G', 'G:7', 'C']]</t>
+          <t>[['F#', 'B', 'B/7']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(0.0, 2.43)]</t>
+          <t>[['E', 'A', 'A']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(51.641107, 57.139232)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+          <t>[('0:00:04.940612', '0:00:06.577619')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:32.874217', '0:00:50.277573')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:1h04XMpzGzmAudoI6VHBgA</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:7CZiDzGVjUssMSOXrDNYHL</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A']]</t>
-        </is>
+          <t>schubert-winterreise_51</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_106</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1666666666666667</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(72.5, 93.84)]</t>
+          <t>[['C#:hdim7/B', 'B:min', 'C#:hdim7/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(107.9, 109.3)]</t>
+          <t>[('0:00:55.820000', '0:01:04.420000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:07.540000', '0:00:26.300000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_175</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.05641025641025641</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C', 'F', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_58</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['G:7', 'C:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(103.520929, 108.664149)]</t>
+          <t>[['C:7', 'F', 'C']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(16.82, 23.18)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:06.740000', '0:00:12.420000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:39.386636', '0:00:52.146870')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_49</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_72</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.06333333333333332</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G', 'G', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_75</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_77</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['Eb', 'Eb', 'Eb']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(20.940758, 23.936132)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(8.7, 12.06)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:16.380000', '0:00:59.980000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:16.320000', '0:01:01.580000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_141</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1821946169772257</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'D:7', 'G:maj', 'G:maj/B']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(72.64, 83.38)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(17.16, 20.68)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:01:00.320000', '0:01:06.700000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:01:01.260000', '0:01:07.540000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_31</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_157</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2719298245614035</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C', 'G', 'C', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5142857142857142</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A', 'E']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(13.336043, 30.271443)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(68.150589, 80.236575)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:02:34.020000', '0:02:39.240000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:01:02.200000', '0:01:04.400000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.09980620155038759</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D:min', 'D:min', 'A:7', 'D:min', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_181</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C:min', 'C:min/G', 'G:7', 'C:min', 'C:min']]</t>
+          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(14.06, 40.1)]</t>
+          <t>[['A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(25.88, 33.5)]</t>
+          <t>[('0:00:03.220000', '0:00:18.300000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:01:01.420000', '0:01:11')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_14</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1083333333333333</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5079365079365079</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min']]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(10.56, 17.34)]</t>
+          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(12.56, 17.2)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:01:02.200000', '0:01:04.500000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:07.640000', '0:00:17.660000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2392857142857143</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>isophonics_280</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.3860294117647059</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>[['E', 'B:7', 'E', 'B:7', 'E']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(63.1, 64.32)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(283.3, 287.58)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:01:01.683832', '0:01:11.056785')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:24.280000', '0:00:44.360000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_214</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_167</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.3819444444444445</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(9.2, 26.6)]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(0.58, 10.18)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:02:32.440000', '0:02:37.160000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:02:28.100000', '0:02:32.600000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_23</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2318840579710145</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_127</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_24</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F#:maj/A#', 'C#:7', 'F#:maj']]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(7.56, 16.36)]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(20.2, 22.82)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:46.060000', '0:00:51.040000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:51.700000', '0:00:57.700000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.05085470085470085</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb', 'Eb'], ['Bb:7', 'Eb', 'Bb:7']]</t>
-        </is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:maj'], ['C:7', 'F:maj', 'C:7/A#']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(31.89, 34.57), (44.07, 46.31)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(6.38, 12.5), (72.5, 82.08)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_95</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1202898550724638</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C:min/G', 'G:7', 'C:min', 'C:min'], ['C', 'C/G', 'G:7', 'C']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min', 'G:min'], ['G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(20.92, 26.04), (225.32, 230.46)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(4.16, 8.8), (20.74, 23.8)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:02:18.020000', '0:02:22.340000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
